--- a/Table/Exp.xlsx
+++ b/Table/Exp.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="_Exp 정보" sheetId="2" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>Index</t>
   </si>
@@ -141,6 +141,10 @@
   </si>
   <si>
     <t>NeedExp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4레벨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -572,7 +576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -674,13 +678,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -745,7 +749,7 @@
         <v>100</v>
       </c>
       <c r="E3" s="6">
-        <v>2</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -759,10 +763,27 @@
         <v>3</v>
       </c>
       <c r="D4" s="6">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E4" s="6">
-        <v>3</v>
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="6">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1000</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1021</v>
       </c>
     </row>
   </sheetData>
